--- a/05_Entregable 3/previo/Diccionarios/MD_14_PNG_Procesos Judiciales Trafico de Vida Silvestre.xlsx
+++ b/05_Entregable 3/previo/Diccionarios/MD_14_PNG_Procesos Judiciales Trafico de Vida Silvestre.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\05_Entregable 3\previo\Diccionarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Elemento</t>
   </si>
@@ -61,18 +61,12 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>Nombre de la variable</t>
-  </si>
-  <si>
     <t>Definición</t>
   </si>
   <si>
     <t>Formato de Datos</t>
   </si>
   <si>
-    <t>Unidad de Medida</t>
-  </si>
-  <si>
     <t>Fuente de Datos</t>
   </si>
   <si>
@@ -182,6 +176,27 @@
   </si>
   <si>
     <t>Clasificación interna PNG</t>
+  </si>
+  <si>
+    <t>Nombre actual</t>
+  </si>
+  <si>
+    <t>Nombre propuesto</t>
+  </si>
+  <si>
+    <t>num_proceso</t>
+  </si>
+  <si>
+    <t>delito</t>
+  </si>
+  <si>
+    <t>hechos</t>
+  </si>
+  <si>
+    <t>nombres_responsable</t>
+  </si>
+  <si>
+    <t>estado_proceso</t>
   </si>
 </sst>
 </file>
@@ -653,58 +668,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -717,15 +732,15 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
@@ -735,377 +750,340 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
+    <row r="17" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+    <row r="18" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+    <row r="19" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+    <row r="20" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+    <row r="21" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
+    <row r="22" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
+    <row r="23" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
+    <row r="24" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
+    <row r="25" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="D26" s="9"/>
+    <row r="26" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="10"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="D27" s="9"/>
+    <row r="27" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="10"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="D28" s="9"/>
+    <row r="28" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="10"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="D29" s="9"/>
+    <row r="29" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="10"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
+    <row r="30" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
+    <row r="31" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
+    <row r="32" spans="3:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
